--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -415,6 +415,14 @@
   </si>
   <si>
     <t>4001-500000-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumPerFloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层多少户最多4户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,10 +851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -856,16 +864,17 @@
     <col min="3" max="3" width="10.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.19921875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.69921875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.296875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -881,29 +890,32 @@
       <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -919,8 +931,8 @@
       <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -931,22 +943,25 @@
       <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -962,29 +977,32 @@
       <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1001001</v>
       </c>
@@ -1000,29 +1018,32 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1001002</v>
       </c>
@@ -1038,29 +1059,32 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1002001</v>
       </c>
@@ -1076,29 +1100,32 @@
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1002002</v>
       </c>
@@ -1114,29 +1141,32 @@
       <c r="E8">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2001001</v>
       </c>
@@ -1152,103 +1182,111 @@
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10" s="7"/>
+      <c r="F10"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="7"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" s="10"/>
+      <c r="F11"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="10"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12" s="7"/>
+      <c r="F12"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="7"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13" s="10"/>
+      <c r="F13"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="10"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="10"/>
+      <c r="F14"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L16" s="5"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -423,6 +423,10 @@
   </si>
   <si>
     <t>每层多少户最多4户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +858,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -947,10 +951,10 @@
         <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>22</v>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -427,6 +427,14 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,76 +863,79 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.69921875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.296875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.59765625" customWidth="1"/>
+    <col min="1" max="2" width="9.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.09765625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="11.296875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>26</v>
@@ -933,13 +944,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>21</v>
@@ -950,67 +961,73 @@
       <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>62</v>
+      <c r="K2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>62</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>1001001</v>
-      </c>
-      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5">
@@ -1020,36 +1037,39 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1001002</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1058,239 +1078,256 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="M6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1002001</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1002002</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="M8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2001001</v>
+        <v>5</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10" s="7"/>
+      <c r="G10"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="7"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11" s="10"/>
+      <c r="G11"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="10"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" s="7"/>
+      <c r="G12"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="7"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13" s="10"/>
+      <c r="G13"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="10"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="G14" s="10"/>
+      <c r="G14"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M16" s="5"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -406,18 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2001-1000000-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001-800000-80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-500000-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NumPerFloor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,6 +423,18 @@
   </si>
   <si>
     <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1-50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +866,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -906,7 +906,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>31</v>
@@ -965,10 +965,10 @@
         <v>21</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>22</v>
@@ -984,7 +984,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>27</v>
@@ -999,7 +999,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>35</v>
@@ -1046,16 +1046,16 @@
         <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>46</v>
@@ -1090,16 +1090,16 @@
         <v>4</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>47</v>
@@ -1134,16 +1134,16 @@
         <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>48</v>
@@ -1178,16 +1178,16 @@
         <v>4</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>50</v>
@@ -1222,16 +1222,16 @@
         <v>4</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>51</v>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Community</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>社区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,36 +178,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "TBuildings" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NumPerFloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层多少户最多4户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万科城市花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-10000-62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-10000-82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-9000-102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-8500-130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.153342</t>
+  </si>
+  <si>
+    <t>121.334982</t>
+  </si>
+  <si>
+    <t>小区ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1</t>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万科旗下精品住宅，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
     </r>
     <r>
       <rPr>
@@ -220,7 +260,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>市</t>
+      <t>号线中春路旁</t>
     </r>
     <r>
       <rPr>
@@ -228,7 +268,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>100</t>
     </r>
     <r>
       <rPr>
@@ -237,204 +277,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>小区</t>
+      <t>米，盛大开盘！</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号楼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号楼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号楼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号楼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumPerFloor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每层多少户最多4户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-1-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001-1-80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-1-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommunityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,6 +302,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -496,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +383,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,74 +736,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.09765625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="9.69921875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="11.296875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.09765625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15.69921875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.69921875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
+      <c r="D1" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -938,22 +815,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>21</v>
@@ -964,370 +841,255 @@
       <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>59</v>
+      <c r="L2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="5">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>2003</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2003001</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" s="5">
+        <v>102</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+        <v>2003</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2003001</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
       <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" s="11"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" s="11"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" s="11"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10"/>
+      <c r="D10" s="11"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11"/>
+      <c r="D11" s="11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11" s="10"/>
+      <c r="H11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N16" s="5"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1358,7 +1120,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -110,6 +110,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>社区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,23 +210,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-10000-62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-10000-82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001-9000-102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-8500-130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,11 +270,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Community</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommunityId</t>
+    <t>BuildingPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,7 +278,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
+    <t>楼盘均价（单价）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-1-62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1-82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1-102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1-130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +395,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -736,57 +737,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.09765625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="15.69921875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.69921875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="12.59765625" customWidth="1"/>
+    <col min="8" max="9" width="14.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="15.19921875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.296875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="D1" s="11"/>
       <c r="E1" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>31</v>
@@ -798,16 +797,19 @@
         <v>33</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -815,13 +817,11 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D2" s="12"/>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>26</v>
@@ -832,8 +832,8 @@
       <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>21</v>
+      <c r="I2" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>21</v>
@@ -844,48 +844,51 @@
       <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>48</v>
+      <c r="M2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>35</v>
@@ -897,16 +900,19 @@
         <v>37</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -920,7 +926,7 @@
         <v>2003001</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -931,29 +937,32 @@
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>52</v>
+      <c r="I5">
+        <v>9400</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -967,7 +976,7 @@
         <v>2003001</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -978,29 +987,32 @@
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>52</v>
+      <c r="I6">
+        <v>9400</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1009,15 +1021,16 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="7"/>
+      <c r="I7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="7"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1026,15 +1039,16 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" s="10"/>
+      <c r="I8"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="10"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1043,15 +1057,16 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9" s="7"/>
+      <c r="I9"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="7"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1060,15 +1075,16 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10" s="10"/>
+      <c r="I10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="10"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1077,19 +1093,35 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11" s="10"/>
+      <c r="I11"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O13" s="5"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1120,7 +1152,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -295,6 +295,16 @@
   </si>
   <si>
     <t>4001-1-130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommunityId</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +750,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -771,7 +781,9 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
@@ -817,9 +829,11 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="E2" s="5" t="s">
         <v>53</v>
       </c>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -282,22 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-1-62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-1-82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001-1-102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-1-130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CommunityId</t>
   </si>
   <si>
@@ -305,6 +289,22 @@
   </si>
   <si>
     <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-10000-62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-10000-82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-9000-102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-8500-130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,8 +749,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -782,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>28</v>
@@ -829,10 +829,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>53</v>
@@ -955,16 +955,16 @@
         <v>9400</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>54</v>
@@ -1005,16 +1005,16 @@
         <v>9400</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>54</v>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -292,19 +292,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-10000-62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-10000-82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001-9000-102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-8500-130</t>
+    <t>1001-4000-62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-4000-82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-3800-102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-3500-130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +750,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>9400</v>
+        <v>3850</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>64</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>9400</v>
+        <v>3850</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>64</v>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -749,8 +749,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -977,54 +977,22 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>102</v>
-      </c>
-      <c r="C6">
-        <v>2003</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2003001</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>3850</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6" s="5"/>
+      <c r="C6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7"/>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -292,19 +292,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-4000-62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-4000-82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001-3800-102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-3500-130</t>
+    <t>1001-4-62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-4-82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-3-102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-3-130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +750,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>3850</v>
+        <v>3</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>64</v>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -292,19 +292,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-4-62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-4-82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001-3-102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-3-130</t>
+    <t>1001-4-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-4-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-3-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-3-130|1002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,8 +749,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -762,10 +762,10 @@
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.8984375" style="1" customWidth="1"/>
     <col min="8" max="9" width="14.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.09765625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.8984375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="17" style="8" customWidth="1"/>
+    <col min="12" max="12" width="18.296875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.8984375" style="8" customWidth="1"/>
     <col min="14" max="14" width="9.69921875" style="8" customWidth="1"/>
     <col min="15" max="15" width="11.296875" style="8" customWidth="1"/>
     <col min="16" max="16" width="12.59765625" customWidth="1"/>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
@@ -311,11 +311,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -745,15 +745,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
@@ -771,7 +771,7 @@
     <col min="16" max="16" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -821,7 +821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -871,12 +871,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -926,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -976,7 +976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6"/>
       <c r="B6" s="5"/>
       <c r="C6"/>
@@ -994,7 +994,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1012,7 +1012,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1030,7 +1030,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1048,7 +1048,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1066,7 +1066,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1084,25 +1084,25 @@
       <c r="O11" s="10"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="13:13">
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="13:13">
       <c r="M18" s="15"/>
     </row>
   </sheetData>
@@ -1117,27 +1117,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CITY\project\treasure\docs\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -307,15 +312,27 @@
     <t>4001-3-130|1002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>建筑图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building/2003001_m.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -745,33 +762,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.8984375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="17" style="8" customWidth="1"/>
-    <col min="12" max="12" width="18.296875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.8984375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="9.69921875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="11.296875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.8984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.8984375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.296875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="18.8984375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9.69921875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="11.296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -784,44 +802,47 @@
       <c r="D1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -834,23 +855,23 @@
       <c r="D2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>21</v>
@@ -861,22 +882,25 @@
       <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>49</v>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -889,44 +913,47 @@
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -939,171 +966,180 @@
       <c r="D5" s="11">
         <v>2003001</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="5"/>
       <c r="C6"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="6"/>
-      <c r="F6"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="7"/>
+      <c r="J6"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" s="11"/>
-      <c r="E7"/>
+      <c r="E7" s="11"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="7"/>
+      <c r="J7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" s="11"/>
-      <c r="E8"/>
+      <c r="E8" s="11"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="10"/>
+      <c r="J8"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" s="11"/>
-      <c r="E9"/>
+      <c r="E9" s="11"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="7"/>
+      <c r="J9"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" s="11"/>
-      <c r="E10"/>
+      <c r="E10" s="11"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="10"/>
+      <c r="J10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" s="11"/>
-      <c r="E11"/>
+      <c r="E11" s="11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="10"/>
+      <c r="J11"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="13:13">
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="13:13">
-      <c r="M18" s="15"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1117,7 +1153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1125,19 +1161,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1163,7 +1199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="101">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -324,13 +324,134 @@
     <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>上海半岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤臣一品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星河湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖畔佳苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚海湾豪庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁恒河滨花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华侨城苏河湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金湾府邸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠湖天地隽荟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名都城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁恒河滨城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚园公馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉里华庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方曼哈顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇贤居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南路8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤臣豪园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤臣高尔夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中粮海景壹号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏堤春晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇景苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方剑桥御庭苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹枫苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎邦丽池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿城黄浦湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯德茂名公馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西郊青溪花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东郊壹号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖畔佳苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -386,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,9 +530,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -422,7 +540,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -764,18 +882,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" style="1" customWidth="1"/>
@@ -784,8 +902,8 @@
     <col min="12" max="12" width="17" style="8" customWidth="1"/>
     <col min="13" max="13" width="18.296875" style="8" customWidth="1"/>
     <col min="14" max="14" width="18.8984375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="9.69921875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="11.296875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -799,10 +917,10 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -852,10 +970,10 @@
       <c r="C2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -910,10 +1028,10 @@
       <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -963,10 +1081,10 @@
       <c r="C5">
         <v>2003</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>2003001</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1007,139 +1125,1541 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6" s="5"/>
-      <c r="C6"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>2007</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2003002</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="14">
+        <v>31.233004000000001</v>
+      </c>
+      <c r="P6" s="14">
+        <v>121.50148799999999</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="5"/>
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>2007</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2003003</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="14">
+        <v>31.192374000000001</v>
+      </c>
+      <c r="P7" s="14">
+        <v>121.535718</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="5"/>
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>2004</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2003004</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="14">
+        <v>31.170960000000001</v>
+      </c>
+      <c r="P8" s="14">
+        <v>121.305606</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="5"/>
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>2007</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2003005</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="14">
+        <v>31.234200000000001</v>
+      </c>
+      <c r="P9" s="14">
+        <v>121.5097</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="5"/>
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>102</v>
+      </c>
+      <c r="C10">
+        <v>2001</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2003006</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="14">
+        <v>31.241499999999998</v>
+      </c>
+      <c r="P10" s="14">
+        <v>121.48900999999999</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="5"/>
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>102</v>
+      </c>
+      <c r="C11">
+        <v>2002</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2003007</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="14">
+        <v>31.178999999999998</v>
+      </c>
+      <c r="P11" s="14">
+        <v>121.45950999999999</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q12" s="5"/>
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>2014</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2003008</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="14">
+        <v>31.215479999999999</v>
+      </c>
+      <c r="P12" s="14">
+        <v>121.39399</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q13" s="5"/>
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>2006</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2003009</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="14">
+        <v>31.2422</v>
+      </c>
+      <c r="P13" s="14">
+        <v>121.47378</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N14" s="15"/>
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>102</v>
+      </c>
+      <c r="C14">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2003010</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="14">
+        <v>31.250340000000001</v>
+      </c>
+      <c r="P14" s="14">
+        <v>121.50637</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N15" s="15"/>
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>102</v>
+      </c>
+      <c r="C15">
+        <v>2001</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2003011</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="14">
+        <v>31.216760000000001</v>
+      </c>
+      <c r="P15" s="14">
+        <v>121.47947000000001</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N18" s="15"/>
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>102</v>
+      </c>
+      <c r="C16">
+        <v>2003</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2003012</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="14">
+        <v>31.187932</v>
+      </c>
+      <c r="P16" s="14">
+        <v>121.40022399999999</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>102</v>
+      </c>
+      <c r="C17">
+        <v>2007</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2003013</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="14">
+        <v>31.227979999999999</v>
+      </c>
+      <c r="P17" s="14">
+        <v>121.56742</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>102</v>
+      </c>
+      <c r="C18">
+        <v>2014</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2003014</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="14">
+        <v>31.218087000000001</v>
+      </c>
+      <c r="P18" s="14">
+        <v>121.427212</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>102</v>
+      </c>
+      <c r="C19">
+        <v>2014</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2003015</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="14">
+        <v>31.21321</v>
+      </c>
+      <c r="P19" s="14">
+        <v>121.435924</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>2002</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2003016</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="14">
+        <v>31.191392</v>
+      </c>
+      <c r="P20" s="14">
+        <v>121.43345100000001</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>102</v>
+      </c>
+      <c r="C21">
+        <v>2002</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2003017</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="14">
+        <v>31.215105000000001</v>
+      </c>
+      <c r="P21" s="14">
+        <v>121.44587</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>2001</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2003018</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="14">
+        <v>31.221810000000001</v>
+      </c>
+      <c r="P22" s="14">
+        <v>121.47821</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>102</v>
+      </c>
+      <c r="C23">
+        <v>2007</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2003019</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="14">
+        <v>31.209764</v>
+      </c>
+      <c r="P23" s="14">
+        <v>121.585264</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>2007</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2003020</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="14">
+        <v>31.21529</v>
+      </c>
+      <c r="P24" s="14">
+        <v>121.58582</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5">
+        <v>102</v>
+      </c>
+      <c r="C25">
+        <v>2007</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2003021</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="14">
+        <v>31.231522999999999</v>
+      </c>
+      <c r="P25" s="14">
+        <v>121.503462</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>102</v>
+      </c>
+      <c r="C26">
+        <v>2012</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2003022</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="14">
+        <v>31.236674000000001</v>
+      </c>
+      <c r="P26" s="14">
+        <v>121.429546</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5">
+        <v>102</v>
+      </c>
+      <c r="C27">
+        <v>2002</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2003023</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="14">
+        <v>31.204740000000001</v>
+      </c>
+      <c r="P27" s="14">
+        <v>121.46146</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>102</v>
+      </c>
+      <c r="C28">
+        <v>2014</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2003024</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="14">
+        <v>31.21565</v>
+      </c>
+      <c r="P28" s="14">
+        <v>121.43753</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>102</v>
+      </c>
+      <c r="C29">
+        <v>2014</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2003025</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" s="14">
+        <v>31.207519999999999</v>
+      </c>
+      <c r="P29" s="14">
+        <v>121.43619</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>102</v>
+      </c>
+      <c r="C30">
+        <v>2014</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2003026</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="14">
+        <v>31.19802</v>
+      </c>
+      <c r="P30" s="14">
+        <v>121.37331</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>102</v>
+      </c>
+      <c r="C31">
+        <v>2001</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2003027</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O31" s="14">
+        <v>31.21782</v>
+      </c>
+      <c r="P31" s="14">
+        <v>121.50438</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>102</v>
+      </c>
+      <c r="C32">
+        <v>2001</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2003028</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" s="14">
+        <v>31.222390000000001</v>
+      </c>
+      <c r="P32" s="14">
+        <v>121.46147000000001</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
+        <v>102</v>
+      </c>
+      <c r="C33">
+        <v>2014</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2003029</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O33" s="14">
+        <v>31.197958</v>
+      </c>
+      <c r="P33" s="14">
+        <v>121.37128800000001</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5">
+        <v>102</v>
+      </c>
+      <c r="C34">
+        <v>2007</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2003030</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" s="14">
+        <v>31.221019999999999</v>
+      </c>
+      <c r="P34" s="14">
+        <v>121.60048999999999</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="103">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -441,7 +441,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>湖畔佳苑</t>
+    <t>四季汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚海湾豪庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇贤居</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +893,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1153,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>64</v>
@@ -1206,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>64</v>
@@ -1247,7 +1255,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1259,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>64</v>
@@ -1300,7 +1308,7 @@
         <v>69</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1365,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>64</v>
@@ -1406,7 +1414,7 @@
         <v>69</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1418,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>64</v>
@@ -1471,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>64</v>
@@ -1524,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>64</v>
@@ -1577,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="J14">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>64</v>
@@ -1630,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>64</v>
@@ -1683,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>64</v>
@@ -1789,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="J18">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>64</v>
@@ -1842,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="J19">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>64</v>
@@ -1895,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>64</v>
@@ -1936,7 +1944,7 @@
         <v>69</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2001,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="J22">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>64</v>
@@ -2054,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="J23">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>64</v>
@@ -2107,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="J24">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>64</v>
@@ -2160,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="J25">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>64</v>
@@ -2213,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="J26">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>64</v>
@@ -2266,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="J27">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>64</v>
@@ -2319,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>64</v>
@@ -2372,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="J29">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>64</v>
@@ -2425,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="J30">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>64</v>
@@ -2478,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="J31">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>64</v>
@@ -2531,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="J32">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>64</v>
@@ -2584,7 +2592,7 @@
         <v>4</v>
       </c>
       <c r="J33">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>64</v>
@@ -2637,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="J34">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>64</v>

--- a/docs/excel/TBuildings.xlsx
+++ b/docs/excel/TBuildings.xlsx
@@ -15,12 +15,12 @@
     <sheet name="TBuildings" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="175">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -450,6 +450,294 @@
   </si>
   <si>
     <t>汇贤居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-2100-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-2100-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-2100-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-2100-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-960-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-960-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-960-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-960-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-650-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-650-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-650-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-650-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-1000-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1000-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1000-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1000-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-1200-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1200-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1200-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1200-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-1100-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1100-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1100-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1100-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-980-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-980-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-980-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-980-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-1300-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1300-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1300-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1300-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-1600-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1600-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1600-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1600-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-600-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-600-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-600-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-600-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-800-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-800-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-800-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-800-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-1400-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1400-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1400-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1400-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-840-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-840-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-840-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-840-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-830-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-830-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-830-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-830-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-900-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-900-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-900-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-900-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-1700-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1700-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1700-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1700-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-1500-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-1500-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-1500-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-1500-130|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-2000-62|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-2000-82|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001-2000-102|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-2000-130|1002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,8 +1180,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1164,16 +1452,16 @@
         <v>2100</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="O6" s="14">
         <v>31.233004000000001</v>
@@ -1217,16 +1505,16 @@
         <v>960</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="O7" s="14">
         <v>31.192374000000001</v>
@@ -1270,16 +1558,16 @@
         <v>650</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="O8" s="14">
         <v>31.170960000000001</v>
@@ -1323,16 +1611,16 @@
         <v>1000</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="O9" s="14">
         <v>31.234200000000001</v>
@@ -1376,16 +1664,16 @@
         <v>1200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="O10" s="14">
         <v>31.241499999999998</v>
@@ -1429,16 +1717,16 @@
         <v>1100</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="O11" s="14">
         <v>31.178999999999998</v>
@@ -1482,16 +1770,16 @@
         <v>980</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="O12" s="14">
         <v>31.215479999999999</v>
@@ -1535,16 +1823,16 @@
         <v>1300</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="O13" s="14">
         <v>31.2422</v>
@@ -1588,16 +1876,16 @@
         <v>1100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="O14" s="14">
         <v>31.250340000000001</v>
@@ -1641,16 +1929,16 @@
         <v>1600</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="O15" s="14">
         <v>31.216760000000001</v>
@@ -1694,16 +1982,16 @@
         <v>600</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="O16" s="14">
         <v>31.187932</v>
@@ -1747,16 +2035,16 @@
         <v>1000</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="O17" s="14">
         <v>31.227979999999999</v>
@@ -1800,16 +2088,16 @@
         <v>1100</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="O18" s="14">
         <v>31.218087000000001</v>
@@ -1853,16 +2141,16 @@
         <v>1100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="O19" s="14">
         <v>31.21321</v>
@@ -1906,16 +2194,16 @@
         <v>1200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="O20" s="14">
         <v>31.191392</v>
@@ -1959,16 +2247,16 @@
         <v>1000</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="O21" s="14">
         <v>31.215105000000001</v>
@@ -2012,16 +2300,16 @@
         <v>1200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="O22" s="14">
         <v>31.221810000000001</v>
@@ -2065,16 +2353,16 @@
         <v>800</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O23" s="14">
         <v>31.209764</v>
@@ -2118,16 +2406,16 @@
         <v>800</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O24" s="14">
         <v>31.21529</v>
@@ -2171,16 +2459,16 @@
         <v>1400</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="O25" s="14">
         <v>31.231522999999999</v>
@@ -2224,16 +2512,16 @@
         <v>840</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="O26" s="14">
         <v>31.236674000000001</v>
@@ -2277,16 +2565,16 @@
         <v>830</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="O27" s="14">
         <v>31.204740000000001</v>
@@ -2330,16 +2618,16 @@
         <v>1100</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="O28" s="14">
         <v>31.21565</v>
@@ -2383,16 +2671,16 @@
         <v>800</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O29" s="14">
         <v>31.207519999999999</v>
@@ -2436,16 +2724,16 @@
         <v>900</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="O30" s="14">
         <v>31.19802</v>
@@ -2489,16 +2777,16 @@
         <v>1300</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="O31" s="14">
         <v>31.21782</v>
@@ -2542,16 +2830,16 @@
         <v>1700</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="O32" s="14">
         <v>31.222390000000001</v>
@@ -2595,16 +2883,16 @@
         <v>1500</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="O33" s="14">
         <v>31.197958</v>
@@ -2648,16 +2936,16 @@
         <v>2000</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="O34" s="14">
         <v>31.221019999999999</v>
